--- a/Algo_practice.xlsx
+++ b/Algo_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwensun/Dropbox/AprilMAC/code/github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3445EC-1693-494A-92C2-8CDA7F4231C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E76633-113A-E94A-9873-398B44BFA9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7240" yWindow="1460" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>No.</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t>Minimize Size subarray Sum</t>
+  </si>
+  <si>
+    <t>merge sorted array</t>
+  </si>
+  <si>
+    <t>指针不一定都从头，这题从尾部走更方便</t>
+  </si>
+  <si>
+    <t>move zeros</t>
+  </si>
+  <si>
+    <t>sort transformed array</t>
+  </si>
+  <si>
+    <t>U 形 靠双指针排序，从两边走</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62791C4-E41C-A74A-A016-7FE150C80ED0}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1817,6 +1832,63 @@
         <v>111</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44079</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>283</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44079</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44079</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algo_practice.xlsx
+++ b/Algo_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwensun/Dropbox/AprilMAC/code/github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E76633-113A-E94A-9873-398B44BFA9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988DE967-517D-1149-B10A-7D9EA5736785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="1460" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
+    <workbookView xWindow="13600" yWindow="8160" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hashmap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>No.</t>
   </si>
@@ -388,6 +388,21 @@
   </si>
   <si>
     <t>U 形 靠双指针排序，从两边走</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort colors </t>
+  </si>
+  <si>
+    <t>这道题主要考inplace sort （这道题借鉴了quicksort）</t>
+  </si>
+  <si>
+    <t>remove duplicates from sorted array</t>
+  </si>
+  <si>
+    <t>inplace sort</t>
+  </si>
+  <si>
+    <t>remove duplicates from sorted array II</t>
   </si>
 </sst>
 </file>
@@ -1713,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62791C4-E41C-A74A-A016-7FE150C80ED0}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1889,6 +1904,75 @@
         <v>111</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algo_practice.xlsx
+++ b/Algo_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwensun/Dropbox/AprilMAC/code/github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988DE967-517D-1149-B10A-7D9EA5736785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FA0E3-4E70-3744-AEBC-7278A0CF564E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="8160" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
+    <workbookView xWindow="14580" yWindow="3080" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hashmap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>No.</t>
   </si>
@@ -403,6 +403,51 @@
   </si>
   <si>
     <t>remove duplicates from sorted array II</t>
+  </si>
+  <si>
+    <t>sum of square numbers</t>
+  </si>
+  <si>
+    <t>首尾相加， 大了尾部减1， 小了首部加1</t>
+  </si>
+  <si>
+    <t>reverese vowels of a string</t>
+  </si>
+  <si>
+    <t>首尾指针， 互换值</t>
+  </si>
+  <si>
+    <t>valid palindrome</t>
+  </si>
+  <si>
+    <t>palindrome 就会让人想到 首尾指针</t>
+  </si>
+  <si>
+    <t>valid palindrome II</t>
+  </si>
+  <si>
+    <t>two pointer + recursive</t>
+  </si>
+  <si>
+    <t>linked List cycle II</t>
+  </si>
+  <si>
+    <t>快慢指针追赶 但这道题主要是数学</t>
+  </si>
+  <si>
+    <t>math + two pointer</t>
+  </si>
+  <si>
+    <t>reverse string</t>
+  </si>
+  <si>
+    <t>3sum smaller</t>
+  </si>
+  <si>
+    <t>valid traingle number</t>
+  </si>
+  <si>
+    <t>运用3 sum 的思想 听精巧的</t>
   </si>
 </sst>
 </file>
@@ -757,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06BEC74-D135-5546-B3B6-1AA9DDD9BEBE}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -1728,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62791C4-E41C-A74A-A016-7FE150C80ED0}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1973,6 +2018,161 @@
         <v>111</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>633</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44080</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>345</v>
+      </c>
+      <c r="C14">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>680</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>142</v>
+      </c>
+      <c r="C17">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>611</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44082</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algo_practice.xlsx
+++ b/Algo_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwensun/Dropbox/AprilMAC/code/github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FA0E3-4E70-3744-AEBC-7278A0CF564E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C342E6F-A077-2840-9CE9-5D97F2F1B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3080" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
+    <workbookView xWindow="6440" yWindow="2920" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hashmap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -441,13 +441,16 @@
     <t>reverse string</t>
   </si>
   <si>
-    <t>3sum smaller</t>
-  </si>
-  <si>
     <t>valid traingle number</t>
   </si>
   <si>
     <t>运用3 sum 的思想 听精巧的</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>首尾指针相遇这类题， 一般都是要先排序，有些题适合升序， 有些题适合降序。一般顺序对了，就不会出现，首尾指针相遇后， 还需要继续走的情况（比如首指针继续向前，或者尾指针继续向后。611 适合降序，259 适合升序）</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62791C4-E41C-A74A-A016-7FE150C80ED0}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2157,19 +2160,42 @@
       <c r="B18">
         <v>611</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>259</v>
+      </c>
+      <c r="D18" t="s">
         <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
       </c>
       <c r="E18" s="1">
         <v>44082</v>
       </c>
       <c r="G18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>259</v>
+      </c>
+      <c r="C19">
+        <v>611</v>
+      </c>
+      <c r="D19" t="s">
         <v>137</v>
       </c>
-      <c r="H18" t="s">
+      <c r="E19" s="1">
+        <v>44083</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Algo_practice.xlsx
+++ b/Algo_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwensun/Dropbox/AprilMAC/code/github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C342E6F-A077-2840-9CE9-5D97F2F1B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95169B15-4D3A-1242-A9F2-2289425EC249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2920" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
+    <workbookView xWindow="10460" yWindow="5440" windowWidth="25600" windowHeight="13960" activeTab="1" xr2:uid="{C2D083F9-CCB1-3A48-B074-E37DECFF620D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hashmap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -78,12 +78,6 @@
     <t>https://leetcode.com/articles/3sum/#approach-2-hash-set</t>
   </si>
   <si>
-    <t>Longest Substring Without Repeating Characters</t>
-  </si>
-  <si>
-    <t>two pointers( sliding window) + hashmap</t>
-  </si>
-  <si>
     <t>verifying an alien dictionary</t>
   </si>
   <si>
@@ -451,6 +445,12 @@
   </si>
   <si>
     <t>首尾指针相遇这类题， 一般都是要先排序，有些题适合升序， 有些题适合降序。一般顺序对了，就不会出现，首尾指针相遇后， 还需要继续走的情况（比如首指针继续向前，或者尾指针继续向后。611 适合降序，259 适合升序）</t>
+  </si>
+  <si>
+    <t>3Sum Cloest</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -803,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06BEC74-D135-5546-B3B6-1AA9DDD9BEBE}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -818,13 +818,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -853,22 +853,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>953</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>44052</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -877,20 +871,24 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>560</v>
+      </c>
+      <c r="C3">
+        <v>974</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>44052</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -899,109 +897,117 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>692</v>
+      </c>
+      <c r="C4">
+        <v>1086</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>44052</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
-        <v>44052</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>44053</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>953</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>44052</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>44056</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>560</v>
-      </c>
-      <c r="C7">
-        <v>974</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>44052</v>
+        <v>44056</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>692</v>
-      </c>
-      <c r="C8">
-        <v>1086</v>
+        <v>981</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>44052</v>
+        <v>44056</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1009,22 +1015,22 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>380</v>
+        <v>706</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>44053</v>
+        <v>44058</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1032,19 +1038,19 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>811</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
-        <v>44056</v>
+        <v>44058</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -1055,22 +1061,25 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>138</v>
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
-        <v>44056</v>
+        <v>44058</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1078,22 +1087,22 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>981</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>44056</v>
+        <v>44058</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1101,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>706</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>44058</v>
@@ -1113,7 +1122,7 @@
         <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1124,22 +1133,22 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>811</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>44058</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1147,25 +1156,22 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>202</v>
-      </c>
-      <c r="C15">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>44058</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1173,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>609</v>
+        <v>739</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1">
         <v>44058</v>
@@ -1185,30 +1191,30 @@
         <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1">
-        <v>44058</v>
+        <v>44069</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1216,45 +1222,45 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>438</v>
+        <v>957</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
-        <v>44058</v>
+        <v>44070</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
-        <v>44058</v>
+        <v>44072</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1262,25 +1268,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>739</v>
+        <v>1048</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
-        <v>44058</v>
+        <v>44072</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1288,22 +1294,19 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>44069</v>
+        <v>44072</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1311,19 +1314,19 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>957</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
-        <v>44070</v>
+        <v>44072</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1334,22 +1337,17 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>311</v>
+        <v>463</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1">
         <v>44072</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1357,22 +1355,25 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>1048</v>
+        <v>1086</v>
+      </c>
+      <c r="C24">
+        <v>692</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1">
         <v>44072</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1380,19 +1381,22 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>204</v>
+        <v>535</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1">
         <v>44072</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1400,22 +1404,25 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>242</v>
+        <v>974</v>
+      </c>
+      <c r="C26">
+        <v>560</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1">
         <v>44072</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1423,17 +1430,22 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>463</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1">
-        <v>44072</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>44073</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1441,25 +1453,25 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>1086</v>
+        <v>1244</v>
       </c>
       <c r="C28">
         <v>692</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1467,22 +1479,25 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>535</v>
+        <v>349</v>
+      </c>
+      <c r="C29">
+        <v>811</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1490,25 +1505,20 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>974</v>
-      </c>
-      <c r="C30">
-        <v>560</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1">
-        <v>44072</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>44073</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1516,22 +1526,22 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
         <v>44073</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1539,25 +1549,22 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>1244</v>
-      </c>
-      <c r="C32">
-        <v>692</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1">
         <v>44073</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1565,25 +1572,22 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>349</v>
-      </c>
-      <c r="C33">
-        <v>811</v>
+        <v>525</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1">
         <v>44073</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1591,20 +1595,22 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1">
         <v>44073</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1612,22 +1618,22 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1">
         <v>44073</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1635,22 +1641,20 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>205</v>
+        <v>694</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1">
         <v>44073</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1658,115 +1662,25 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>525</v>
+        <v>718</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1">
         <v>44073</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>187</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="1">
-        <v>44073</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>359</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="1">
-        <v>44073</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>694</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44073</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>718</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="1">
-        <v>44073</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1776,28 +1690,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62791C4-E41C-A74A-A016-7FE150C80ED0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="48.1640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="64.83203125" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1806,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -1815,342 +1729,395 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>44077</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
+        <v>44052</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>44077</v>
-      </c>
-      <c r="G3" t="s">
-        <v>110</v>
-      </c>
+        <v>44052</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>259</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44083</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44077</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>209</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44077</v>
-      </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
       <c r="E6" s="1">
-        <v>44079</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
+        <v>44052</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1">
-        <v>44079</v>
+        <v>44077</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1">
-        <v>44079</v>
+        <v>44077</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1">
-        <v>44080</v>
+        <v>44077</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
-        <v>44080</v>
+        <v>44077</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1">
-        <v>44080</v>
+        <v>44079</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1">
+        <v>44079</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44079</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1">
         <v>44080</v>
       </c>
-      <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>344</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44081</v>
-      </c>
-      <c r="G13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>345</v>
-      </c>
-      <c r="C14">
-        <v>344</v>
-      </c>
-      <c r="D14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44081</v>
+      <c r="F14" t="s">
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>125</v>
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1">
-        <v>44081</v>
+        <v>44080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>680</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1">
-        <v>44081</v>
+        <v>44080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>142</v>
+        <v>633</v>
       </c>
       <c r="C17">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1">
-        <v>44081</v>
+        <v>44080</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2158,22 +2125,22 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>611</v>
-      </c>
-      <c r="C18">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1">
-        <v>44082</v>
+        <v>44081</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2181,22 +2148,126 @@
         <v>6</v>
       </c>
       <c r="B19">
+        <v>345</v>
+      </c>
+      <c r="C19">
+        <v>344</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44081</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44081</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>680</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44081</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>142</v>
+      </c>
+      <c r="C22">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44081</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>611</v>
+      </c>
+      <c r="C23">
         <v>259</v>
       </c>
-      <c r="C19">
-        <v>611</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44083</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44082</v>
+      </c>
+      <c r="F23" t="s">
         <v>138</v>
       </c>
-      <c r="H19" t="s">
-        <v>111</v>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
